--- a/data/trans_camb/P25_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_3-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,78</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,23; -3,13</t>
+          <t>-18,64; 3,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 4,56</t>
+          <t>-12,98; 7,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 11,12</t>
+          <t>-10,04; 18,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 4,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 8,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 11,97</t>
+          <t>-7,32; 9,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -1,65</t>
+          <t>-2,82; 13,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 4,47</t>
+          <t>-2,95; 18,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 9,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 4,3</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 8,63</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 13,85</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-43,65%</t>
+          <t>-30,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,79%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,48%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-11,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,21; -13,74</t>
+          <t>-56,7; 16,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 22,06</t>
+          <t>-38,61; 35,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 51,56</t>
+          <t>-30,35; 93,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 23,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 39,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 57,16</t>
+          <t>-26,69; 56,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,69; -8,11</t>
+          <t>-10,5; 83,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 20,59</t>
+          <t>-11,7; 110,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 42,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-30,99; 22,9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 44,47</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 69,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,68</t>
+          <t>-5,76; 4,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,41</t>
+          <t>-8,59; 1,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 7,29</t>
+          <t>-3,62; 7,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 4,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 6,95</t>
+          <t>-3,08; 5,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,1</t>
+          <t>-3,71; 4,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,96</t>
+          <t>-0,36; 9,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 5,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 3,55</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 2,17</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 7,62</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-5,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>-21,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>27,32%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 36,85</t>
+          <t>-32,46; 35,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 37,03</t>
+          <t>-46,99; 14,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 72,74</t>
+          <t>-20,96; 63,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 42,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 54,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 71,98</t>
+          <t>-21,61; 56,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 30,48</t>
+          <t>-23,98; 48,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 29,22</t>
+          <t>-3,57; 95,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 57,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-22,11; 31,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-27,52; 20,15</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 68,66</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,62</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 7,31</t>
+          <t>-1,45; 9,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 6,97</t>
+          <t>-2,6; 7,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 6,28</t>
+          <t>3,45; 15,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 1,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 7,26</t>
+          <t>-3,7; 4,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,62</t>
+          <t>-5,61; 2,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,03</t>
+          <t>-1,04; 8,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 4,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 5,86</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 3,8</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 10,75</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,08%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>-14,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>67,66%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 89,72</t>
+          <t>-9,37; 120,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 82,04</t>
+          <t>-19,95; 94,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 74,95</t>
+          <t>23,65; 195,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 54,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 16,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 92,14</t>
+          <t>-32,22; 80,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 53,1</t>
+          <t>-45,97; 44,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 36,33</t>
+          <t>-11,54; 129,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 55,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 72,04</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-23,75; 48,31</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>23,98; 129,8</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 1,79</t>
+          <t>-7,45; 0,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,01</t>
+          <t>-1,95; 7,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,4</t>
+          <t>-6,65; 4,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,43</t>
+          <t>-1,89; 10,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 0,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 7,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>-29,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-17,6%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>23,33%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 14,51</t>
+          <t>-55,66; 9,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 24,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 55,59</t>
+          <t>-14,55; 82,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 24,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 29,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,05; 65,14</t>
+          <t>-35,0; 31,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 12,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 18,81</t>
+          <t>-10,47; 68,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,12; 52,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-37,98; 6,04</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 55,34</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,05</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,78</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 2,42</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 3,88</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 8,25</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 2,93</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 3,21</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 7,82</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 1,83</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 2,77</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 7,05</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-2,48%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33,45%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>35,31%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-21,74; 20,77</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 33,46</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>13,38; 68,47</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; 22,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; 24,93</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9,03; 61,09</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 14,05</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 21,82</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 54,05</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
